--- a/incidenti e morti negli anni.xlsx
+++ b/incidenti e morti negli anni.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giulioghiro/Desktop/progetto/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17657B0-D244-E64C-9B1A-A19CDADCC17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3060" yWindow="4040" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,154 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Main topic</t>
+  </si>
+  <si>
+    <t>He was driving distractedly or indecisively</t>
+  </si>
+  <si>
+    <t>Distraction</t>
+  </si>
+  <si>
+    <t>He was proceeding at excessive speed</t>
+  </si>
+  <si>
+    <t>Speeding</t>
+  </si>
+  <si>
+    <t>Unspecified circumstance</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>He proceeded without maintaining a safe distance</t>
+  </si>
+  <si>
+    <t>It maneuvered irregularly</t>
+  </si>
+  <si>
+    <t>He proceeded without respecting the stop sign</t>
+  </si>
+  <si>
+    <t>He proceeded without giving priority to the vehicle coming from the right</t>
+  </si>
+  <si>
+    <t>He proceeded without respecting the give way sign</t>
+  </si>
+  <si>
+    <t>It turned irregularly</t>
+  </si>
+  <si>
+    <t>He was proceeding against traffic</t>
+  </si>
+  <si>
+    <t>He overtook irregularly</t>
+  </si>
+  <si>
+    <t>Vehicle avoided</t>
+  </si>
+  <si>
+    <t>Avoiding objects</t>
+  </si>
+  <si>
+    <t>He did not give priority to pedestrians at the designated crossings</t>
+  </si>
+  <si>
+    <t>He proceeded without respecting the traffic lights or the officer's signals</t>
+  </si>
+  <si>
+    <t>He was not proceeding close to the right edge of the road</t>
+  </si>
+  <si>
+    <t>Vehicle stopped in an irregular position hit</t>
+  </si>
+  <si>
+    <t>Bumping</t>
+  </si>
+  <si>
+    <t>He proceeded without respecting the speed limits</t>
+  </si>
+  <si>
+    <t>He proceeded without respecting the traffic or access prohibition signs</t>
+  </si>
+  <si>
+    <t>Person falls from vehicle due to descent from moving vehicle</t>
+  </si>
+  <si>
+    <t>Falling from a moving object</t>
+  </si>
+  <si>
+    <t>Animal avoided</t>
+  </si>
+  <si>
+    <t>Person falling from vehicle due to holding on or positioning himself/herself inadequately</t>
+  </si>
+  <si>
+    <t>Person falls from vehicle due to door opening</t>
+  </si>
+  <si>
+    <t>He suddenly braked, resulting in injuries</t>
+  </si>
+  <si>
+    <t>It came alongside other two-wheeled vehicles irregularly</t>
+  </si>
+  <si>
+    <t>Vehicle stopped without the required bumped sign having been placed</t>
+  </si>
+  <si>
+    <t>It went off the road and hit the pedestrian</t>
+  </si>
+  <si>
+    <t>He hit the pedestrian with the load</t>
+  </si>
+  <si>
+    <t>He proceeded with his lights on and passed other vehicles</t>
+  </si>
+  <si>
+    <t>He went out of the driveway without precaution, hitting the pedestrian</t>
+  </si>
+  <si>
+    <t>He carelessly crossed the level crossing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Incorrect pedestrian behaviour</t>
+  </si>
+  <si>
+    <t>Accidental obstacle hit</t>
+  </si>
+  <si>
+    <t>Domestic or companion animal, income animal, work animal affected</t>
+  </si>
+  <si>
+    <t>Wild animal hit</t>
+  </si>
+  <si>
+    <t>Bumped hole</t>
+  </si>
+  <si>
+    <t>Accidental obstacle avoided</t>
+  </si>
+  <si>
+    <t>Potholes, etc. avoided</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +201,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +488,586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32701</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>19605</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41582</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16788</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7658</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9755</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4599</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4899</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4399</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1230</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7185</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1627</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2263</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2386</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>711</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1347</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1447</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>493</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>985</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>236</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>795</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>308</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>150</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>190</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5899</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3436</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1284</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1">
+        <v>902</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>